--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A24BB5-BF96-4E2C-8F2C-71A45A8024F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A260A1F-19D1-44DE-87B5-149DC29B4746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Get" sheetId="4" r:id="rId1"/>
     <sheet name="Create" sheetId="1" r:id="rId2"/>
     <sheet name="Delete" sheetId="2" r:id="rId3"/>
+    <sheet name="Download Queue Items" sheetId="5" r:id="rId4"/>
+    <sheet name="Upload Queue Items" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +67,18 @@
   </si>
   <si>
     <t>Organization Unit Name</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>Queue Items Filepath</t>
+  </si>
+  <si>
+    <t>Commit Type</t>
+  </si>
+  <si>
+    <t>Download Folderpath</t>
   </si>
 </sst>
 </file>
@@ -106,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -233,11 +247,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,13 +306,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -295,7 +331,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -308,6 +344,246 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -676,6 +952,31 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -897,17 +1198,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Organization Unit ID" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Organization Unit Name" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of retries" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Organization Unit ID" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Organization Unit Name" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of retries" totalsRowFunction="count" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -917,14 +1218,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Organization Unit Name" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of retries" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Organization Unit Name" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of retries" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,11 +1235,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Organization Unit ID" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Organization Unit Name" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Organization Unit ID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Organization Unit Name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Organization Unit Name" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folderpath" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCB67D51-E017-4B9D-B6B1-7213CB9837F8}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Organization Unit Name" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items Filepath" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6769,4 +7097,2692 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E987D8-7C5C-43B6-8BCE-4DEE40D0A7B1}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="32"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="32"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="32"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="32"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="32"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="32"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="32"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="32"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="32"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="32"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="32"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="32"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="32"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="32"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="32"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="32"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="32"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="32"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="32"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="32"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="32"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="32"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="32"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="32"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="32"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="32"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="32"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="32"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="32"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="32"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="32"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="32"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="32"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="32"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="32"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="32"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="32"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="32"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="32"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="32"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="32"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="32"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="32"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="32"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="32"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="32"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="32"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="32"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="32"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="32"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="32"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="32"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="32"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="32"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="32"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="32"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="32"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="32"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="32"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="32"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="32"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="32"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="32"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="32"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="32"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="32"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="32"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="32"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="32"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="32"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="32"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="32"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="32"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="32"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="32"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="32"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="32"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="32"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="32"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="32"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="32"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="32"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="32"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="32"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="32"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="32"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="32"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="32"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="32"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="32"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="32"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="32"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="32"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="27"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="32"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="32"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="32"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="32"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="32"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="32"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="32"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="32"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="32"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="32"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="32"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="27"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="32"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="27"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="32"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="32"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="27"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="32"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="32"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="27"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="32"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="27"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="32"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="27"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="32"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="27"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="32"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="27"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="32"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="27"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="32"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="27"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="32"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="27"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="32"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="27"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="32"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="27"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="32"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="27"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="32"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="27"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="32"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="27"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="32"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="27"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="32"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="27"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="32"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="27"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="32"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="27"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="32"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="27"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="32"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="27"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="32"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="27"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="32"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="27"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="32"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="27"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="32"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="27"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="32"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="32"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="32"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="27"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="32"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="27"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="32"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="27"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="32"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="27"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="32"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="27"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="32"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="27"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="32"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="27"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="32"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="27"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="32"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="27"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="32"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="27"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="32"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="27"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="32"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="27"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="32"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="27"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="32"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="27"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="32"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578035-D73C-4A6A-820B-64D1D259E97E}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="32"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="32"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="32"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="32"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="32"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="32"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="32"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="32"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="32"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="32"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="32"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="32"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="32"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="32"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="32"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="32"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="32"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="32"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="32"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="32"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="32"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="32"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="32"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="32"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="32"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="32"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="32"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="32"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="32"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="32"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="32"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="32"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="32"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="32"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="32"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="32"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="32"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="32"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="32"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="32"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="32"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="32"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="32"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="32"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="32"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="32"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="32"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="32"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="32"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="32"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="32"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="32"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="32"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="32"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="32"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="32"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="32"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="32"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="32"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="32"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="32"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="32"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="32"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="32"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="32"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="32"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="32"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="32"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="32"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="32"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="32"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="32"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="32"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="27"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="32"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="32"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="32"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="32"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="32"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="32"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="32"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="32"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="32"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="32"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="32"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="27"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="32"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="27"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="32"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="32"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="27"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="32"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="32"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="27"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="32"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="27"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="32"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="27"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="32"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="27"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="32"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="27"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="32"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="27"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="32"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="27"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="32"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="27"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="32"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="27"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="32"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="27"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="32"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="27"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="32"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="27"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="32"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="27"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="32"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="27"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="32"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="27"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="32"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="27"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="32"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="27"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="32"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="27"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="32"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="27"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="32"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="27"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="32"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="27"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="32"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="27"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="32"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="27"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="32"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="32"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="32"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="27"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="32"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="27"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="32"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="27"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="32"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="27"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="32"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="27"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="28"/>
+      <c r="E191" s="32"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="27"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="32"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="27"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="32"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="27"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="32"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="27"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="32"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="27"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="32"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="27"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="32"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="27"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="32"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="27"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="32"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="27"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="32"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="32"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D8E47E7A-FEC5-43D3-87D4-DDEA82177451}">
+      <formula1>"AllOrNothing,StopOnFirstFailure,ProcessAllIndependently"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A260A1F-19D1-44DE-87B5-149DC29B4746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290AE63-177C-4C4A-9EB1-6B3E1BD8E5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Auto Retry</t>
   </si>
   <si>
-    <t>Max # of retries</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -72,13 +69,16 @@
     <t>結果</t>
   </si>
   <si>
-    <t>Queue Items Filepath</t>
-  </si>
-  <si>
     <t>Commit Type</t>
   </si>
   <si>
-    <t>Download Folderpath</t>
+    <t>Max # of Retries</t>
+  </si>
+  <si>
+    <t>Download Folder Path</t>
+  </si>
+  <si>
+    <t>Queue Items File Path</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1208,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of retries" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1223,7 +1223,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of retries" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="14"/>
   </tableColumns>
@@ -1251,7 +1251,7 @@
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Organization Unit Name" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folderpath" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1264,7 +1264,7 @@
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Organization Unit Name" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items Filepath" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items File Path" dataDxfId="2"/>
     <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="結果" dataDxfId="0"/>
   </tableColumns>
@@ -1555,16 +1555,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3580,9 +3580,18 @@
       <c r="H201" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C202:D1048576 F2:G201" xr:uid="{721689B9-07E2-490C-A54C-D0A800BB1707}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D202:D1048576 G2:G201 F2:F1048576" xr:uid="{721689B9-07E2-490C-A54C-D0A800BB1707}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Organization Unit ID" error="Organization Unit ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{2D5AC75D-E530-41B6-B077-6A38811CEF2A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Queue ID" error="Queue ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{E71F3993-F0C0-4E86-873B-F93183A40B5A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Max # of Retries" error="Max # of Retries must be an integer greater than or equal to 0." sqref="H2:H1048576" xr:uid="{C1EF2E49-C8C3-48AE-9193-A0DB55F33BB6}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3615,10 +3624,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -3630,13 +3639,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5641,12 +5650,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F96:F201" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
-      <formula1>"Success,Failure"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Max # of Retries" error="Max # of Retries must be an integer greater than or equal to 0." sqref="F2:F1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C202:D1048576 D2:E201" xr:uid="{9BB751AA-AB69-4D0A-AA2D-E5870E02057F}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="G2:G1048576" xr:uid="{C938A995-CD08-4F99-8C47-FFA19FEE8DD6}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5675,19 +5687,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>9</v>
+      <c r="C1" s="10" t="s">
+        <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -7091,6 +7103,14 @@
       <c r="E201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Organization Unit ID" error="Organization Unit ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{B4A75EE6-4521-45E1-B794-E001C7244621}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Queue ID" error="Queue ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{8C426E0B-CB23-4C74-BCA0-BD389A10005D}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -7118,16 +7138,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8358,19 +8378,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -9775,7 +9795,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D8E47E7A-FEC5-43D3-87D4-DDEA82177451}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Commit Type" error="Please select a supported Commit Type." sqref="D2:D1048576" xr:uid="{D8E47E7A-FEC5-43D3-87D4-DDEA82177451}">
       <formula1>"AllOrNothing,StopOnFirstFailure,ProcessAllIndependently"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\UsingFolders\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76AE7B-75B8-4B9F-87A5-492433EA34CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A825C46-49D4-4A83-AC4C-63AA2DCC1EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFC4F0-A08E-4679-B579-45CD89CCCDD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E355915-9A3D-46BF-B969-0E69394C6BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -347,259 +347,6 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -860,6 +607,56 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -896,6 +693,31 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -916,6 +738,54 @@
         <horizontal style="thin">
           <color theme="5"/>
         </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1001,6 +871,65 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
@@ -1081,6 +1010,54 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1106,6 +1083,29 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1170,13 +1170,13 @@
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Folder ID" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="28"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1186,14 +1186,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1203,11 +1203,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,10 +1217,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1230,11 +1230,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCB67D51-E017-4B9D-B6B1-7213CB9837F8}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items File Path" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items File Path" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1505,20 +1505,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="41.6328125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -3580,14 +3580,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="30" style="18" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="45.54296875" style="37" customWidth="1"/>
+    <col min="1" max="2" width="25.7265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="45.7265625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -5641,17 +5640,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25" style="37" customWidth="1"/>
-    <col min="5" max="5" width="43.6328125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -7098,10 +7097,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="1" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="4" width="45.7265625" customWidth="1"/>
     <col min="5" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8338,11 +8335,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="1" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">

--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E4730-FF43-4FBB-990F-3FEF8166BE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A4FDE-8F4C-46D2-935D-60E5729FA4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -3558,7 +3558,7 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A4FDE-8F4C-46D2-935D-60E5729FA4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA3D56-FA28-40A9-A38B-20F31B3BE1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -69,13 +69,16 @@
     <t>Download Folder Path</t>
   </si>
   <si>
-    <t>Queue Items File Path</t>
-  </si>
-  <si>
     <t>Folder ID</t>
   </si>
   <si>
     <t>Folder Name</t>
+  </si>
+  <si>
+    <t>Previously Downloaded Queue Items File Path</t>
+  </si>
+  <si>
+    <t>Downloaded Queue Items File Path</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1149,17 +1183,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Folder ID" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Folder ID" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1169,14 +1203,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1186,24 +1220,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0">
-  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Downloaded Queue Items File Path" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{CA1DE7F2-A6B3-4977-B91A-8CC3135AC7D4}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1213,11 +1248,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCB67D51-E017-4B9D-B6B1-7213CB9837F8}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items File Path" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Previously Downloaded Queue Items File Path" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1488,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1506,10 +1541,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>5</v>
@@ -3574,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>6</v>
@@ -5638,10 +5673,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>5</v>
@@ -7072,22 +7107,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E987D8-7C5C-43B6-8BCE-4DEE40D0A7B1}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="5" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>6</v>
@@ -7096,1208 +7130,1411 @@
         <v>9</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="30"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="30"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="30"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="30"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="30"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="30"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="30"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="30"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="30"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="30"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="30"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="30"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="30"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="30"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="30"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="30"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="30"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="30"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="30"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="30"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="30"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="30"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="30"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="30"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="30"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="30"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="30"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="30"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="30"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="30"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="30"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="30"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="30"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="30"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="30"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="30"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="30"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="30"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="30"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="30"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="30"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="30"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="30"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="30"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="30"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="30"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="30"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="30"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="30"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="30"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
       <c r="D104" s="30"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="30"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
       <c r="D106" s="30"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="30"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
       <c r="D108" s="30"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="30"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
       <c r="D110" s="30"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="30"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="30"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="30"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="30"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="30"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="30"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
       <c r="D117" s="30"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="30"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="30"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="30"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
       <c r="D121" s="30"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="30"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
       <c r="D123" s="30"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
       <c r="D124" s="30"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="30"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="30"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="30"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="30"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
       <c r="D129" s="30"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="30"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="30"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="30"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="30"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="30"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="30"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="30"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
       <c r="D137" s="30"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
       <c r="D138" s="30"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
       <c r="D139" s="30"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
       <c r="D140" s="30"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
       <c r="D141" s="30"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
       <c r="D142" s="30"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="30"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
       <c r="D144" s="30"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
       <c r="D145" s="30"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
       <c r="D146" s="30"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
       <c r="D147" s="30"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="26"/>
       <c r="D148" s="30"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
       <c r="D149" s="30"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
       <c r="D150" s="30"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
       <c r="D151" s="30"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="30"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
       <c r="D153" s="30"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="30"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
       <c r="D155" s="30"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="30"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
       <c r="D157" s="30"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="30"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
       <c r="D159" s="30"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
       <c r="D160" s="30"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
       <c r="D161" s="30"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
       <c r="D162" s="30"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="30"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="26"/>
       <c r="D164" s="30"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="26"/>
       <c r="D165" s="30"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
       <c r="D166" s="30"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
       <c r="D167" s="30"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="30"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
       <c r="D169" s="30"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="30"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
       <c r="D171" s="30"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="30"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
       <c r="D173" s="30"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
       <c r="D174" s="30"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="26"/>
       <c r="D175" s="30"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
       <c r="D176" s="30"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="26"/>
       <c r="D177" s="30"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="26"/>
       <c r="D178" s="30"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="30"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="26"/>
       <c r="D180" s="30"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
       <c r="D181" s="30"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="26"/>
       <c r="D182" s="30"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
       <c r="D183" s="30"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="30"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="30"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="30"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="30"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
       <c r="D188" s="30"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="30"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="30"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="30"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="30"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
       <c r="D193" s="30"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
       <c r="D194" s="30"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
       <c r="D195" s="30"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
       <c r="D196" s="30"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="30"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
       <c r="D198" s="30"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="26"/>
       <c r="D199" s="30"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
       <c r="D200" s="30"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="32"/>
       <c r="D201" s="30"/>
+      <c r="E201" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8326,13 +8563,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>7</v>

--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA3D56-FA28-40A9-A38B-20F31B3BE1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A4FDE-8F4C-46D2-935D-60E5729FA4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -69,16 +69,13 @@
     <t>Download Folder Path</t>
   </si>
   <si>
+    <t>Queue Items File Path</t>
+  </si>
+  <si>
     <t>Folder ID</t>
   </si>
   <si>
     <t>Folder Name</t>
-  </si>
-  <si>
-    <t>Previously Downloaded Queue Items File Path</t>
-  </si>
-  <si>
-    <t>Downloaded Queue Items File Path</t>
   </si>
 </sst>
 </file>
@@ -324,38 +321,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1183,17 +1149,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Folder ID" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="28"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Folder ID" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1203,14 +1169,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1220,25 +1186,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0">
-  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Downloaded Queue Items File Path" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{CA1DE7F2-A6B3-4977-B91A-8CC3135AC7D4}" name="Result" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1248,11 +1213,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCB67D51-E017-4B9D-B6B1-7213CB9837F8}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Previously Downloaded Queue Items File Path" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items File Path" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1523,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1541,10 +1506,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>5</v>
@@ -3609,7 +3574,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>6</v>
@@ -5673,10 +5638,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>5</v>
@@ -7107,21 +7072,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E987D8-7C5C-43B6-8BCE-4DEE40D0A7B1}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="45.7109375" customWidth="1"/>
+    <col min="3" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>6</v>
@@ -7130,1411 +7096,1208 @@
         <v>9</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="30"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="30"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="30"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="30"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="30"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="30"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="30"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="30"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="30"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="30"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="30"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="30"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="30"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="30"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="30"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="30"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="30"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="30"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="30"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="30"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="30"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="30"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="30"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="30"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="30"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="30"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="30"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="30"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="30"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="30"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="30"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="30"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="30"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="30"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="30"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="30"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="30"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="30"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="30"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="30"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="30"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="30"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="30"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="30"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="30"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="30"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="30"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="30"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="30"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="30"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="30"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="30"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="30"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="30"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="30"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="30"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="30"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="30"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="30"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="30"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
       <c r="D104" s="30"/>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="30"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
       <c r="D106" s="30"/>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="30"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
       <c r="D108" s="30"/>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="30"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
       <c r="D110" s="30"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="30"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="30"/>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="30"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="30"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="30"/>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="30"/>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
       <c r="D117" s="30"/>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="30"/>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="30"/>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="30"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
       <c r="D121" s="30"/>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="30"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
       <c r="D123" s="30"/>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
       <c r="D124" s="30"/>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="30"/>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="30"/>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="30"/>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="30"/>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
       <c r="D129" s="30"/>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="30"/>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="30"/>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="30"/>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="30"/>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="30"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="30"/>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="30"/>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
       <c r="D137" s="30"/>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
       <c r="D138" s="30"/>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
       <c r="D139" s="30"/>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
       <c r="D140" s="30"/>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
       <c r="D141" s="30"/>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
       <c r="D142" s="30"/>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="30"/>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
       <c r="D144" s="30"/>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
       <c r="D145" s="30"/>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
       <c r="D146" s="30"/>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
       <c r="D147" s="30"/>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="26"/>
       <c r="D148" s="30"/>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
       <c r="D149" s="30"/>
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
       <c r="D150" s="30"/>
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
       <c r="D151" s="30"/>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="30"/>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
       <c r="D153" s="30"/>
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="30"/>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
       <c r="D155" s="30"/>
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="30"/>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
       <c r="D157" s="30"/>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="30"/>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
       <c r="D159" s="30"/>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
       <c r="D160" s="30"/>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
       <c r="D161" s="30"/>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
       <c r="D162" s="30"/>
-      <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="30"/>
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="26"/>
       <c r="D164" s="30"/>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="26"/>
       <c r="D165" s="30"/>
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
       <c r="D166" s="30"/>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
       <c r="D167" s="30"/>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="30"/>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
       <c r="D169" s="30"/>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="30"/>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
       <c r="D171" s="30"/>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="30"/>
-      <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
       <c r="D173" s="30"/>
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
       <c r="D174" s="30"/>
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="26"/>
       <c r="D175" s="30"/>
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
       <c r="D176" s="30"/>
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="26"/>
       <c r="D177" s="30"/>
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="26"/>
       <c r="D178" s="30"/>
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="30"/>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="26"/>
       <c r="D180" s="30"/>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
       <c r="D181" s="30"/>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="26"/>
       <c r="D182" s="30"/>
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
       <c r="D183" s="30"/>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="30"/>
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="30"/>
-      <c r="E185" s="4"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="30"/>
-      <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="30"/>
-      <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
       <c r="D188" s="30"/>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="30"/>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="30"/>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="30"/>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="30"/>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
       <c r="D193" s="30"/>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
       <c r="D194" s="30"/>
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
       <c r="D195" s="30"/>
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
       <c r="D196" s="30"/>
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="30"/>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
       <c r="D198" s="30"/>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="26"/>
       <c r="D199" s="30"/>
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
       <c r="D200" s="30"/>
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="32"/>
       <c r="D201" s="30"/>
-      <c r="E201" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8563,13 +8326,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>7</v>

--- a/Workbooks/EN/Queues.xlsx
+++ b/Workbooks/EN/Queues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A4FDE-8F4C-46D2-935D-60E5729FA4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC6446-153A-4FF9-BBC1-AE7DAB1BF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29745" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Delete" sheetId="2" r:id="rId3"/>
     <sheet name="Download Queue Items" sheetId="5" r:id="rId4"/>
     <sheet name="Upload Queue Items" sheetId="6" r:id="rId5"/>
+    <sheet name="Link or Unlink" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -77,23 +78,42 @@
   <si>
     <t>Folder Name</t>
   </si>
+  <si>
+    <t>Link or Unlink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Folder Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -246,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,11 +337,99 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1149,17 +1257,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Folder ID" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="Folder ID" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="Folder Name" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="Queue ID" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Queue Name" totalsRowLabel="Total" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Unique Reference" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="Auto Retry" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Max # of Retries" totalsRowFunction="count" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1169,14 +1277,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="Folder Name" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Queue Name" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="Unique Reference" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="Auto Retry" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="Max # of Retries" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1186,11 +1294,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="Folder ID" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="Folder Name" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Queue ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Queue Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,10 +1308,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="Folder Name" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="Queue Name" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="Download Folder Path" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="Result" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1213,11 +1321,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCB67D51-E017-4B9D-B6B1-7213CB9837F8}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items File Path" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="Folder Name" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="Queue Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="Queue Items File Path" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="Commit Type" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="Result" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6B34A2BE-98C4-4DCB-8E16-38D785A18EDA}" name="Table19" displayName="Table19" ref="A1:D200" totalsRowShown="0">
+  <autoFilter ref="A1:D200" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B1735495-4382-41CE-B614-26EEDAEC79EF}" name="Queue ID" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{11E257AA-B996-4B45-B609-C77D731E54F9}" name="Folder Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{042D8595-EEE4-422A-A17E-28BB97D36587}" name="Link or Unlink" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7615EC38-0CD5-4C02-9BC5-4B1EF9999EE2}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1492,19 +1613,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="35" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="35" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
@@ -1530,7 +1651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1540,7 +1661,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -1550,7 +1671,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -1560,7 +1681,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -1570,7 +1691,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -1580,7 +1701,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -1590,7 +1711,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -1600,7 +1721,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -1610,7 +1731,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -1620,7 +1741,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1630,7 +1751,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1640,7 +1761,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1650,7 +1771,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1660,7 +1781,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1670,7 +1791,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -1680,7 +1801,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -1690,7 +1811,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
@@ -1700,7 +1821,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
@@ -1710,7 +1831,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
@@ -1720,7 +1841,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -1730,7 +1851,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
@@ -1740,7 +1861,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -1750,7 +1871,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1760,7 +1881,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -1770,7 +1891,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
@@ -1780,7 +1901,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -1790,7 +1911,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -1800,7 +1921,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -1810,7 +1931,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1820,7 +1941,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
@@ -1830,7 +1951,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -1840,7 +1961,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -1850,7 +1971,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
@@ -1860,7 +1981,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
@@ -1870,7 +1991,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
@@ -1880,7 +2001,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
@@ -1890,7 +2011,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
@@ -1900,7 +2021,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
@@ -1910,7 +2031,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -1920,7 +2041,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
@@ -1930,7 +2051,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
@@ -1940,7 +2061,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
@@ -1950,7 +2071,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
@@ -1960,7 +2081,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
@@ -1970,7 +2091,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
@@ -1980,7 +2101,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
@@ -1990,7 +2111,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="4"/>
@@ -2000,7 +2121,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="4"/>
@@ -2010,7 +2131,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
@@ -2020,7 +2141,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="4"/>
@@ -2030,7 +2151,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="4"/>
@@ -2040,7 +2161,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="4"/>
@@ -2050,7 +2171,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="4"/>
@@ -2060,7 +2181,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="4"/>
@@ -2070,7 +2191,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="4"/>
@@ -2080,7 +2201,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="4"/>
@@ -2090,7 +2211,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
@@ -2100,7 +2221,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
@@ -2110,7 +2231,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
@@ -2120,7 +2241,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
@@ -2130,7 +2251,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
@@ -2140,7 +2261,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="4"/>
@@ -2150,7 +2271,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -2160,7 +2281,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="4"/>
@@ -2170,7 +2291,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="4"/>
@@ -2180,7 +2301,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="4"/>
@@ -2190,7 +2311,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="4"/>
@@ -2200,7 +2321,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -2210,7 +2331,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -2220,7 +2341,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="4"/>
@@ -2230,7 +2351,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="4"/>
@@ -2240,7 +2361,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="4"/>
@@ -2250,7 +2371,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="4"/>
@@ -2260,7 +2381,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="4"/>
@@ -2270,7 +2391,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="4"/>
@@ -2280,7 +2401,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="4"/>
@@ -2290,7 +2411,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="4"/>
@@ -2300,7 +2421,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="4"/>
@@ -2310,7 +2431,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="4"/>
@@ -2320,7 +2441,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="4"/>
@@ -2330,7 +2451,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="4"/>
@@ -2340,7 +2461,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="4"/>
@@ -2350,7 +2471,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="4"/>
@@ -2360,7 +2481,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="4"/>
@@ -2370,7 +2491,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="4"/>
@@ -2380,7 +2501,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="4"/>
@@ -2390,7 +2511,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="4"/>
@@ -2400,7 +2521,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="4"/>
@@ -2410,7 +2531,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="4"/>
@@ -2420,7 +2541,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
@@ -2430,7 +2551,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="4"/>
@@ -2440,7 +2561,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="4"/>
@@ -2450,7 +2571,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="4"/>
@@ -2460,7 +2581,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="4"/>
@@ -2470,7 +2591,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="4"/>
@@ -2480,7 +2601,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -2490,7 +2611,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -2500,7 +2621,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="4"/>
@@ -2510,7 +2631,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="4"/>
@@ -2520,7 +2641,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="4"/>
@@ -2530,7 +2651,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="4"/>
@@ -2540,7 +2661,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
@@ -2550,7 +2671,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
@@ -2560,7 +2681,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="4"/>
@@ -2570,7 +2691,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="4"/>
@@ -2580,7 +2701,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="4"/>
@@ -2590,7 +2711,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
@@ -2600,7 +2721,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
@@ -2610,7 +2731,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
@@ -2620,7 +2741,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -2630,7 +2751,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>
@@ -2640,7 +2761,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="4"/>
@@ -2650,7 +2771,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="4"/>
@@ -2660,7 +2781,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="4"/>
@@ -2670,7 +2791,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="4"/>
@@ -2680,7 +2801,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -2690,7 +2811,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
@@ -2700,7 +2821,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
@@ -2710,7 +2831,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="4"/>
@@ -2720,7 +2841,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
@@ -2730,7 +2851,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
@@ -2740,7 +2861,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
@@ -2750,7 +2871,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
@@ -2760,7 +2881,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
@@ -2770,7 +2891,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
@@ -2780,7 +2901,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
@@ -2790,7 +2911,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="4"/>
@@ -2800,7 +2921,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="4"/>
@@ -2810,7 +2931,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="4"/>
@@ -2820,7 +2941,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="4"/>
@@ -2830,7 +2951,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="4"/>
@@ -2840,7 +2961,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="4"/>
@@ -2850,7 +2971,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="4"/>
@@ -2860,7 +2981,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="4"/>
@@ -2870,7 +2991,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="4"/>
@@ -2880,7 +3001,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="4"/>
@@ -2890,7 +3011,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="4"/>
@@ -2900,7 +3021,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="4"/>
@@ -2910,7 +3031,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
@@ -2920,7 +3041,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="4"/>
@@ -2930,7 +3051,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="4"/>
@@ -2940,7 +3061,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
@@ -2950,7 +3071,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="4"/>
@@ -2960,7 +3081,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="4"/>
@@ -2970,7 +3091,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="4"/>
@@ -2980,7 +3101,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
@@ -2990,7 +3111,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="4"/>
@@ -3000,7 +3121,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="4"/>
@@ -3010,7 +3131,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="4"/>
@@ -3020,7 +3141,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="4"/>
@@ -3030,7 +3151,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="4"/>
@@ -3040,7 +3161,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="4"/>
@@ -3050,7 +3171,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="4"/>
@@ -3060,7 +3181,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="4"/>
@@ -3070,7 +3191,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="4"/>
@@ -3080,7 +3201,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="4"/>
@@ -3090,7 +3211,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="4"/>
@@ -3100,7 +3221,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="4"/>
@@ -3110,7 +3231,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="4"/>
@@ -3120,7 +3241,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="4"/>
@@ -3130,7 +3251,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="4"/>
@@ -3140,7 +3261,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="4"/>
@@ -3150,7 +3271,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="4"/>
@@ -3160,7 +3281,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="4"/>
@@ -3170,7 +3291,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="4"/>
@@ -3180,7 +3301,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="4"/>
@@ -3190,7 +3311,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="4"/>
@@ -3200,7 +3321,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="4"/>
@@ -3210,7 +3331,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="4"/>
@@ -3220,7 +3341,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="4"/>
@@ -3230,7 +3351,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="4"/>
@@ -3240,7 +3361,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="4"/>
@@ -3250,7 +3371,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="4"/>
@@ -3260,7 +3381,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="4"/>
@@ -3270,7 +3391,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="4"/>
@@ -3280,7 +3401,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="4"/>
@@ -3290,7 +3411,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="4"/>
@@ -3300,7 +3421,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="4"/>
@@ -3310,7 +3431,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="4"/>
@@ -3320,7 +3441,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="4"/>
@@ -3330,7 +3451,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="4"/>
@@ -3340,7 +3461,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="4"/>
@@ -3350,7 +3471,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="4"/>
@@ -3360,7 +3481,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="4"/>
@@ -3370,7 +3491,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="4"/>
@@ -3380,7 +3501,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="4"/>
@@ -3390,7 +3511,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="4"/>
@@ -3400,7 +3521,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="4"/>
@@ -3410,7 +3531,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="4"/>
@@ -3420,7 +3541,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="4"/>
@@ -3430,7 +3551,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="4"/>
@@ -3440,7 +3561,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="4"/>
@@ -3450,7 +3571,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="4"/>
@@ -3460,7 +3581,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="4"/>
@@ -3470,7 +3591,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="4"/>
@@ -3480,7 +3601,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="4"/>
@@ -3490,7 +3611,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="4"/>
@@ -3500,7 +3621,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="4"/>
@@ -3510,7 +3631,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="9"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="4"/>
@@ -3520,7 +3641,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="8"/>
       <c r="B201" s="17"/>
       <c r="C201" s="8"/>
@@ -3531,6 +3652,7 @@
       <c r="H201" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D202:D1048576 G2:G201 F2:F1048576" xr:uid="{721689B9-07E2-490C-A54C-D0A800BB1707}">
       <formula1>"Yes,No"</formula1>
@@ -3561,18 +3683,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" style="35" customWidth="1"/>
+    <col min="1" max="2" width="25.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="45.75" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -3598,7 +3720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="36"/>
       <c r="B2" s="11"/>
       <c r="C2" s="19"/>
@@ -3608,7 +3730,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="19"/>
@@ -3618,7 +3740,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="19"/>
@@ -3628,7 +3750,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="19"/>
@@ -3638,7 +3760,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="19"/>
@@ -3648,7 +3770,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="19"/>
@@ -3658,7 +3780,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19"/>
@@ -3668,7 +3790,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="19"/>
@@ -3678,7 +3800,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="19"/>
@@ -3688,7 +3810,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="19"/>
@@ -3698,7 +3820,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="19"/>
@@ -3708,7 +3830,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="19"/>
@@ -3718,7 +3840,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="19"/>
@@ -3728,7 +3850,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="19"/>
@@ -3738,7 +3860,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="19"/>
@@ -3748,7 +3870,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3758,7 +3880,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="19"/>
@@ -3768,7 +3890,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="19"/>
@@ -3778,7 +3900,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="19"/>
@@ -3788,7 +3910,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="19"/>
@@ -3798,7 +3920,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="19"/>
@@ -3808,7 +3930,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="19"/>
@@ -3818,7 +3940,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="19"/>
@@ -3828,7 +3950,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="19"/>
@@ -3838,7 +3960,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="19"/>
@@ -3848,7 +3970,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="19"/>
@@ -3858,7 +3980,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="19"/>
@@ -3868,7 +3990,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="19"/>
@@ -3878,7 +4000,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3888,7 +4010,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="19"/>
@@ -3898,7 +4020,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="19"/>
@@ -3908,7 +4030,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="19"/>
@@ -3918,7 +4040,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="19"/>
@@ -3928,7 +4050,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3938,7 +4060,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="19"/>
@@ -3948,7 +4070,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="19"/>
@@ -3958,7 +4080,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="19"/>
@@ -3968,7 +4090,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="19"/>
@@ -3978,7 +4100,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="19"/>
@@ -3988,7 +4110,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="19"/>
@@ -3998,7 +4120,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="19"/>
@@ -4008,7 +4130,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="19"/>
@@ -4018,7 +4140,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="19"/>
@@ -4028,7 +4150,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="19"/>
@@ -4038,7 +4160,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="19"/>
@@ -4048,7 +4170,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="19"/>
@@ -4058,7 +4180,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="19"/>
@@ -4068,7 +4190,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -4078,7 +4200,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="19"/>
@@ -4088,7 +4210,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -4098,7 +4220,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
@@ -4108,7 +4230,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
@@ -4118,7 +4240,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="19"/>
@@ -4128,7 +4250,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="19"/>
@@ -4138,7 +4260,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="19"/>
@@ -4148,7 +4270,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="19"/>
@@ -4158,7 +4280,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="19"/>
@@ -4168,7 +4290,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="19"/>
@@ -4178,7 +4300,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="19"/>
@@ -4188,7 +4310,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="19"/>
@@ -4198,7 +4320,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="16"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="19"/>
@@ -4208,7 +4330,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="19"/>
@@ -4218,7 +4340,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="19"/>
@@ -4228,7 +4350,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="16"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="19"/>
@@ -4238,7 +4360,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="16"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="19"/>
@@ -4248,7 +4370,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="16"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="19"/>
@@ -4258,7 +4380,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="16"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="19"/>
@@ -4268,7 +4390,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="16"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="19"/>
@@ -4278,7 +4400,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="16"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="19"/>
@@ -4288,7 +4410,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="16"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="19"/>
@@ -4298,7 +4420,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="16"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="19"/>
@@ -4308,7 +4430,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="19"/>
@@ -4318,7 +4440,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="19"/>
@@ -4328,7 +4450,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="19"/>
@@ -4338,7 +4460,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="16"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="19"/>
@@ -4348,7 +4470,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="19"/>
@@ -4358,7 +4480,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="19"/>
@@ -4368,7 +4490,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="19"/>
@@ -4378,7 +4500,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="16"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="19"/>
@@ -4388,7 +4510,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="16"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="19"/>
@@ -4398,7 +4520,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="16"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="19"/>
@@ -4408,7 +4530,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="16"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="19"/>
@@ -4418,7 +4540,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="16"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="19"/>
@@ -4428,7 +4550,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="19"/>
@@ -4438,7 +4560,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="19"/>
@@ -4448,7 +4570,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="19"/>
@@ -4458,7 +4580,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="19"/>
@@ -4468,7 +4590,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="19"/>
@@ -4478,7 +4600,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="19"/>
@@ -4488,7 +4610,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="16"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="19"/>
@@ -4498,7 +4620,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="19"/>
@@ -4508,7 +4630,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="19"/>
@@ -4518,7 +4640,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="19"/>
@@ -4528,7 +4650,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="16"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="19"/>
@@ -4538,7 +4660,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="16"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="19"/>
@@ -4548,7 +4670,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="16"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="19"/>
@@ -4558,7 +4680,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="16"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="19"/>
@@ -4568,7 +4690,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="19"/>
@@ -4578,7 +4700,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="16"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="19"/>
@@ -4588,7 +4710,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="16"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="19"/>
@@ -4598,7 +4720,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="16"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="19"/>
@@ -4608,7 +4730,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="19"/>
@@ -4618,7 +4740,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="19"/>
@@ -4628,7 +4750,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="19"/>
@@ -4638,7 +4760,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="19"/>
@@ -4648,7 +4770,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="19"/>
@@ -4658,7 +4780,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="19"/>
@@ -4668,7 +4790,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="19"/>
@@ -4678,7 +4800,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="19"/>
@@ -4688,7 +4810,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="19"/>
@@ -4698,7 +4820,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="19"/>
@@ -4708,7 +4830,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="19"/>
@@ -4718,7 +4840,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="16"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="19"/>
@@ -4728,7 +4850,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="19"/>
@@ -4738,7 +4860,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="19"/>
@@ -4748,7 +4870,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="19"/>
@@ -4758,7 +4880,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="19"/>
@@ -4768,7 +4890,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="19"/>
@@ -4778,7 +4900,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="19"/>
@@ -4788,7 +4910,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="19"/>
@@ -4798,7 +4920,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="19"/>
@@ -4808,7 +4930,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="19"/>
@@ -4818,7 +4940,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="19"/>
@@ -4828,7 +4950,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="19"/>
@@ -4838,7 +4960,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="16"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="19"/>
@@ -4848,7 +4970,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="16"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="19"/>
@@ -4858,7 +4980,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="16"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="19"/>
@@ -4868,7 +4990,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="16"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="19"/>
@@ -4878,7 +5000,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="16"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="19"/>
@@ -4888,7 +5010,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="16"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="19"/>
@@ -4898,7 +5020,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="16"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="19"/>
@@ -4908,7 +5030,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="16"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="19"/>
@@ -4918,7 +5040,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="16"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="19"/>
@@ -4928,7 +5050,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="16"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="19"/>
@@ -4938,7 +5060,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="16"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="19"/>
@@ -4948,7 +5070,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="16"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="19"/>
@@ -4958,7 +5080,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="16"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="19"/>
@@ -4968,7 +5090,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="16"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="19"/>
@@ -4978,7 +5100,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="16"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="19"/>
@@ -4988,7 +5110,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="16"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="19"/>
@@ -4998,7 +5120,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="16"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="19"/>
@@ -5008,7 +5130,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="16"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="19"/>
@@ -5018,7 +5140,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="16"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="19"/>
@@ -5028,7 +5150,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="16"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="19"/>
@@ -5038,7 +5160,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="16"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="19"/>
@@ -5048,7 +5170,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="16"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="19"/>
@@ -5058,7 +5180,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="16"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="19"/>
@@ -5068,7 +5190,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="16"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="19"/>
@@ -5078,7 +5200,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="16"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="19"/>
@@ -5088,7 +5210,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="16"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="19"/>
@@ -5098,7 +5220,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="16"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="19"/>
@@ -5108,7 +5230,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="16"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="19"/>
@@ -5118,7 +5240,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="16"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="19"/>
@@ -5128,7 +5250,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="16"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="19"/>
@@ -5138,7 +5260,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="16"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="19"/>
@@ -5148,7 +5270,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="16"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="19"/>
@@ -5158,7 +5280,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="16"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="19"/>
@@ -5168,7 +5290,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="16"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="19"/>
@@ -5178,7 +5300,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="16"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="19"/>
@@ -5188,7 +5310,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="16"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="19"/>
@@ -5198,7 +5320,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="16"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="19"/>
@@ -5208,7 +5330,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="16"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="19"/>
@@ -5218,7 +5340,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="16"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="19"/>
@@ -5228,7 +5350,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="16"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="19"/>
@@ -5238,7 +5360,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="16"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="19"/>
@@ -5248,7 +5370,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="16"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="19"/>
@@ -5258,7 +5380,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="16"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="19"/>
@@ -5268,7 +5390,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="16"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="19"/>
@@ -5278,7 +5400,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="16"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="19"/>
@@ -5288,7 +5410,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="16"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="19"/>
@@ -5298,7 +5420,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="16"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="19"/>
@@ -5308,7 +5430,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="16"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="19"/>
@@ -5318,7 +5440,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="16"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="19"/>
@@ -5328,7 +5450,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="16"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="19"/>
@@ -5338,7 +5460,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="16"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="19"/>
@@ -5348,7 +5470,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="16"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="19"/>
@@ -5358,7 +5480,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="16"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="19"/>
@@ -5368,7 +5490,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="16"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="19"/>
@@ -5378,7 +5500,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="16"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="19"/>
@@ -5388,7 +5510,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="16"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="19"/>
@@ -5398,7 +5520,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="16"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="19"/>
@@ -5408,7 +5530,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="16"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="19"/>
@@ -5418,7 +5540,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="16"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="19"/>
@@ -5428,7 +5550,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="16"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="19"/>
@@ -5438,7 +5560,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="16"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="19"/>
@@ -5448,7 +5570,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="16"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="19"/>
@@ -5458,7 +5580,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="16"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="19"/>
@@ -5468,7 +5590,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="16"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="19"/>
@@ -5478,7 +5600,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="16"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="19"/>
@@ -5488,7 +5610,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="16"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="19"/>
@@ -5498,7 +5620,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="16"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="19"/>
@@ -5508,7 +5630,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="16"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="19"/>
@@ -5518,7 +5640,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="16"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="19"/>
@@ -5528,7 +5650,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="16"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="19"/>
@@ -5538,7 +5660,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="16"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="19"/>
@@ -5548,7 +5670,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="16"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="19"/>
@@ -5558,7 +5680,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="16"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="19"/>
@@ -5568,7 +5690,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="16"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="19"/>
@@ -5578,7 +5700,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="16"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="19"/>
@@ -5588,7 +5710,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="16"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="37"/>
       <c r="B201" s="37"/>
       <c r="C201" s="20"/>
@@ -5627,16 +5749,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="35" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="35" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -5653,1400 +5775,1400 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
       <c r="B2" s="36"/>
       <c r="C2" s="11"/>
       <c r="D2" s="19"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="19"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="19"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="19"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="19"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="19"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="19"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="19"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="19"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
       <c r="D12" s="19"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="19"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="19"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="19"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="19"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="19"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
       <c r="D18" s="19"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
       <c r="D19" s="19"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
       <c r="D20" s="19"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
       <c r="D21" s="19"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
       <c r="D22" s="19"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
       <c r="D23" s="19"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
       <c r="D24" s="19"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
       <c r="D25" s="19"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
       <c r="D26" s="19"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
       <c r="D27" s="19"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
       <c r="D28" s="19"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="19"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
       <c r="D31" s="19"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="19"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="19"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="19"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="19"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="19"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="19"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="19"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="19"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
       <c r="D41" s="19"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
       <c r="D42" s="19"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
       <c r="D43" s="19"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
       <c r="D44" s="19"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
       <c r="D45" s="19"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
       <c r="D46" s="19"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
       <c r="D47" s="19"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
       <c r="D48" s="19"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
       <c r="D49" s="19"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
       <c r="D50" s="19"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
       <c r="D51" s="19"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
       <c r="D52" s="19"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
       <c r="D53" s="19"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
       <c r="D54" s="19"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
       <c r="D55" s="19"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
       <c r="D56" s="19"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
       <c r="D57" s="19"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
       <c r="D58" s="19"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
       <c r="D59" s="19"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
       <c r="D60" s="19"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
       <c r="D61" s="19"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
       <c r="D62" s="19"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
       <c r="D63" s="19"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
       <c r="D64" s="19"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
       <c r="D65" s="19"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
       <c r="D66" s="19"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
       <c r="D67" s="19"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
       <c r="D68" s="19"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
       <c r="D69" s="19"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
       <c r="D70" s="19"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
       <c r="D71" s="19"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
       <c r="D72" s="19"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
       <c r="D73" s="19"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
       <c r="D74" s="19"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
       <c r="D75" s="19"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
       <c r="D76" s="19"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
       <c r="D77" s="19"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
       <c r="D78" s="19"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
       <c r="D80" s="19"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
       <c r="D85" s="11"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
       <c r="D86" s="11"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
       <c r="D90" s="11"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
       <c r="D91" s="11"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
       <c r="D92" s="11"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
       <c r="D99" s="11"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
       <c r="D115" s="11"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
       <c r="C117" s="10"/>
       <c r="D117" s="11"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
       <c r="C119" s="10"/>
       <c r="D119" s="11"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
       <c r="C120" s="10"/>
       <c r="D120" s="11"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="C121" s="10"/>
       <c r="D121" s="11"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
       <c r="C123" s="10"/>
       <c r="D123" s="11"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="C124" s="10"/>
       <c r="D124" s="11"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
       <c r="C125" s="10"/>
       <c r="D125" s="11"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
       <c r="D126" s="11"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
       <c r="D127" s="11"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
       <c r="C128" s="10"/>
       <c r="D128" s="11"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="11"/>
       <c r="C129" s="10"/>
       <c r="D129" s="11"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
       <c r="D130" s="11"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
       <c r="D131" s="11"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
       <c r="D133" s="11"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="10"/>
       <c r="D136" s="11"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
       <c r="D138" s="11"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10"/>
       <c r="D139" s="11"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
       <c r="C140" s="10"/>
       <c r="D140" s="11"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="11"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="C142" s="10"/>
       <c r="D142" s="11"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
       <c r="D145" s="11"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
       <c r="D147" s="11"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
       <c r="D148" s="11"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
       <c r="D149" s="11"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
       <c r="D150" s="11"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
       <c r="D151" s="11"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
       <c r="D152" s="11"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
       <c r="D153" s="11"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
       <c r="D154" s="11"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
       <c r="D155" s="11"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
       <c r="D158" s="11"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
       <c r="D161" s="11"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
       <c r="D162" s="11"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
       <c r="D164" s="11"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
       <c r="D167" s="11"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
       <c r="D168" s="11"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
       <c r="D169" s="11"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
       <c r="D170" s="11"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="C173" s="10"/>
       <c r="D173" s="11"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="C174" s="10"/>
       <c r="D174" s="11"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
       <c r="D175" s="11"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
       <c r="D176" s="11"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="C177" s="10"/>
       <c r="D177" s="11"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="10"/>
       <c r="D180" s="11"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
       <c r="D182" s="11"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="C183" s="10"/>
       <c r="D183" s="11"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="C184" s="10"/>
       <c r="D184" s="11"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="C186" s="10"/>
       <c r="D186" s="11"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="11"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="C189" s="10"/>
       <c r="D189" s="11"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
       <c r="D190" s="11"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
       <c r="D191" s="11"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="10"/>
       <c r="D192" s="11"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="10"/>
       <c r="D193" s="11"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="10"/>
       <c r="D194" s="11"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="10"/>
       <c r="D195" s="11"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
       <c r="D196" s="11"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
       <c r="D197" s="11"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="10"/>
       <c r="D198" s="11"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="10"/>
       <c r="D199" s="11"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="37"/>
       <c r="C201" s="14"/>
@@ -7054,6 +7176,7 @@
       <c r="E201" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{B4A75EE6-4521-45E1-B794-E001C7244621}">
       <formula1>0</formula1>
@@ -7078,14 +7201,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="4" width="45.75" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
@@ -7099,1207 +7222,1208 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="30"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="30"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="30"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="30"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="30"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="30"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="30"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="30"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="30"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="30"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="30"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="30"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="30"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="30"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="30"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="30"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="30"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="30"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="30"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="30"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="30"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="30"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="30"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="30"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="30"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="30"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="30"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="30"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="30"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="30"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="30"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="30"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="30"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="30"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="30"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="30"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="30"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="30"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="30"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="30"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="30"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="30"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="30"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="30"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="30"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="30"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="30"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="30"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="30"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="30"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="30"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="30"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="30"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="30"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="30"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="30"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
       <c r="D104" s="30"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="30"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
       <c r="D106" s="30"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="30"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
       <c r="D108" s="30"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="30"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
       <c r="D110" s="30"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="30"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="30"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="30"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="30"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="30"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="30"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
       <c r="D117" s="30"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="30"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="30"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="30"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
       <c r="D121" s="30"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="30"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
       <c r="D123" s="30"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
       <c r="D124" s="30"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="30"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="30"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="30"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="30"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
       <c r="D129" s="30"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="30"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="30"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="30"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="30"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="30"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="30"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="30"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
       <c r="D137" s="30"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
       <c r="D138" s="30"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
       <c r="D139" s="30"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
       <c r="D140" s="30"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
       <c r="D141" s="30"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
       <c r="D142" s="30"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="30"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
       <c r="D144" s="30"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
       <c r="D145" s="30"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
       <c r="D146" s="30"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
       <c r="D147" s="30"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="26"/>
       <c r="D148" s="30"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
       <c r="D149" s="30"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
       <c r="D150" s="30"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
       <c r="D151" s="30"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="30"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
       <c r="D153" s="30"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="30"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
       <c r="D155" s="30"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="30"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
       <c r="D157" s="30"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="30"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
       <c r="D159" s="30"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
       <c r="D160" s="30"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
       <c r="D161" s="30"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
       <c r="D162" s="30"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="30"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="26"/>
       <c r="D164" s="30"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="26"/>
       <c r="D165" s="30"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
       <c r="D166" s="30"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
       <c r="D167" s="30"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="30"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
       <c r="D169" s="30"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="30"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
       <c r="D171" s="30"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="30"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
       <c r="D173" s="30"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
       <c r="D174" s="30"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="26"/>
       <c r="D175" s="30"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
       <c r="D176" s="30"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="26"/>
       <c r="D177" s="30"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="26"/>
       <c r="D178" s="30"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="30"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="26"/>
       <c r="D180" s="30"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
       <c r="D181" s="30"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="26"/>
       <c r="D182" s="30"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
       <c r="D183" s="30"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="30"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="30"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="30"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="30"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
       <c r="D188" s="30"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="30"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="30"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="30"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="30"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
       <c r="D193" s="30"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
       <c r="D194" s="30"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
       <c r="D195" s="30"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
       <c r="D196" s="30"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="30"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
       <c r="D198" s="30"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="26"/>
       <c r="D199" s="30"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
       <c r="D200" s="30"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="32"/>
       <c r="D201" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -8316,15 +8440,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
@@ -8341,1400 +8465,1400 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="33"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="30"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="30"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="30"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="30"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="30"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="30"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="30"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="30"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="30"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="30"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="30"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="30"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="30"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="30"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="30"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="30"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="E54" s="30"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="30"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="30"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
       <c r="E57" s="30"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="30"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="30"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="30"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="30"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="30"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="30"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="30"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="30"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
       <c r="E66" s="30"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="E67" s="30"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="30"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="30"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
       <c r="E71" s="30"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="E72" s="30"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
       <c r="E73" s="30"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="30"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="30"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
       <c r="E76" s="30"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
       <c r="E77" s="30"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
       <c r="E78" s="30"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="30"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="30"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
       <c r="E81" s="30"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="30"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
       <c r="E83" s="30"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
       <c r="E84" s="30"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
       <c r="E85" s="30"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
       <c r="E86" s="30"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
       <c r="E87" s="30"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
       <c r="E88" s="30"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
       <c r="E89" s="30"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
       <c r="E90" s="30"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
       <c r="E91" s="30"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
       <c r="E92" s="30"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
       <c r="E93" s="30"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
       <c r="E94" s="30"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
       <c r="E95" s="30"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
       <c r="E96" s="30"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="30"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
       <c r="E98" s="30"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="26"/>
       <c r="E99" s="30"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
       <c r="E100" s="30"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
       <c r="E101" s="30"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
       <c r="E102" s="30"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
       <c r="E103" s="30"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
       <c r="E104" s="30"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="26"/>
       <c r="E105" s="30"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
       <c r="D106" s="26"/>
       <c r="E106" s="30"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="26"/>
       <c r="E107" s="30"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
       <c r="D108" s="26"/>
       <c r="E108" s="30"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
       <c r="E109" s="30"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
       <c r="E110" s="30"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
       <c r="E111" s="30"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
       <c r="E112" s="30"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="26"/>
       <c r="E113" s="30"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
       <c r="E114" s="30"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
       <c r="E115" s="30"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="26"/>
       <c r="E116" s="30"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
       <c r="E117" s="30"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
       <c r="E118" s="30"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
       <c r="E119" s="30"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
       <c r="E120" s="30"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
       <c r="D121" s="26"/>
       <c r="E121" s="30"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="26"/>
       <c r="E122" s="30"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
       <c r="D123" s="26"/>
       <c r="E123" s="30"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
       <c r="D124" s="26"/>
       <c r="E124" s="30"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="26"/>
       <c r="E125" s="30"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
       <c r="E126" s="30"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="26"/>
       <c r="E127" s="30"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="26"/>
       <c r="E128" s="30"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
       <c r="D129" s="26"/>
       <c r="E129" s="30"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
       <c r="E130" s="30"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="26"/>
       <c r="E131" s="30"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="26"/>
       <c r="E132" s="30"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="26"/>
       <c r="E133" s="30"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="26"/>
       <c r="E134" s="30"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="26"/>
       <c r="E135" s="30"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
       <c r="E136" s="30"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
       <c r="D137" s="26"/>
       <c r="E137" s="30"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
       <c r="E138" s="30"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
       <c r="D139" s="26"/>
       <c r="E139" s="30"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
       <c r="D140" s="26"/>
       <c r="E140" s="30"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
       <c r="E141" s="30"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
       <c r="E142" s="30"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="26"/>
       <c r="E143" s="30"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
       <c r="D144" s="26"/>
       <c r="E144" s="30"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
       <c r="E145" s="30"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
       <c r="D146" s="26"/>
       <c r="E146" s="30"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
       <c r="D147" s="26"/>
       <c r="E147" s="30"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="26"/>
       <c r="D148" s="26"/>
       <c r="E148" s="30"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="30"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
       <c r="D150" s="26"/>
       <c r="E150" s="30"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
       <c r="D151" s="26"/>
       <c r="E151" s="30"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
       <c r="E152" s="30"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
       <c r="D153" s="26"/>
       <c r="E153" s="30"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="30"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
       <c r="D155" s="26"/>
       <c r="E155" s="30"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
       <c r="E156" s="30"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
       <c r="D157" s="26"/>
       <c r="E157" s="30"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
       <c r="E158" s="30"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="30"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
       <c r="E160" s="30"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
       <c r="D161" s="26"/>
       <c r="E161" s="30"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
       <c r="E162" s="30"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
       <c r="E163" s="30"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
       <c r="E164" s="30"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
       <c r="E165" s="30"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
       <c r="E166" s="30"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
       <c r="E167" s="30"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
       <c r="E168" s="30"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
       <c r="D169" s="26"/>
       <c r="E169" s="30"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
       <c r="E170" s="30"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
       <c r="E171" s="30"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="30"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
       <c r="D173" s="26"/>
       <c r="E173" s="30"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
       <c r="D174" s="26"/>
       <c r="E174" s="30"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
       <c r="E175" s="30"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
       <c r="D176" s="26"/>
       <c r="E176" s="30"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="26"/>
       <c r="D177" s="26"/>
       <c r="E177" s="30"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="26"/>
       <c r="D178" s="26"/>
       <c r="E178" s="30"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
       <c r="E179" s="30"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="26"/>
       <c r="D180" s="26"/>
       <c r="E180" s="30"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
       <c r="D181" s="26"/>
       <c r="E181" s="30"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
       <c r="E182" s="30"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
       <c r="E183" s="30"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="26"/>
       <c r="E184" s="30"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="26"/>
       <c r="E185" s="30"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="26"/>
       <c r="E186" s="30"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="26"/>
       <c r="E187" s="30"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
       <c r="D188" s="26"/>
       <c r="E188" s="30"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
       <c r="E189" s="30"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="26"/>
       <c r="E190" s="30"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
       <c r="E191" s="30"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="26"/>
       <c r="E192" s="30"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
       <c r="E193" s="30"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
       <c r="E194" s="30"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
       <c r="D195" s="26"/>
       <c r="E195" s="30"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26"/>
       <c r="E196" s="30"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
       <c r="E197" s="30"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26"/>
       <c r="E198" s="30"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="26"/>
       <c r="D199" s="26"/>
       <c r="E199" s="30"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26"/>
       <c r="E200" s="30"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="32"/>
@@ -9742,6 +9866,7 @@
       <c r="E201" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Commit Type" error="Please select a supported Commit Type." sqref="D2:D1048576" xr:uid="{D8E47E7A-FEC5-43D3-87D4-DDEA82177451}">
       <formula1>"AllOrNothing,StopOnFirstFailure,ProcessAllIndependently"</formula1>
@@ -9753,4 +9878,1043 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F41D4-4C27-491C-874E-31104119C844}">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="40"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="40"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="40"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="40"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="40"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="D35" s="40"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="D37" s="40"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="D38" s="40"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="D40" s="40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="D41" s="40"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="D42" s="40"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="D43" s="40"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="D44" s="40"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="D45" s="40"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="D46" s="40"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="D47" s="40"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="D49" s="40"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="D50" s="40"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="D51" s="40"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="D54" s="40"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="D55" s="40"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="D56" s="40"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="D58" s="40"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="D59" s="40"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="D60" s="40"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="D61" s="40"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="D62" s="40"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="D63" s="40"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="D64" s="40"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="D65" s="40"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="D66" s="40"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="D67" s="40"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="D68" s="40"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="D71" s="40"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="D72" s="40"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="D73" s="40"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="D74" s="40"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="D75" s="40"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="D77" s="40"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="D80" s="40"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="D81" s="40"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="D82" s="40"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="D83" s="40"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="D84" s="40"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="D85" s="40"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="D86" s="40"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="D87" s="40"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="D88" s="40"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="D89" s="40"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="D90" s="40"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="D91" s="40"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="D92" s="40"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="D93" s="40"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="D95" s="40"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="D98" s="40"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="D99" s="40"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="D100" s="40"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="D101" s="40"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="D102" s="40"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="D103" s="40"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="D104" s="40"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="D105" s="40"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="D106" s="40"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="D107" s="40"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="D108" s="40"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="D109" s="40"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="D110" s="40"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="D111" s="40"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="D112" s="40"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="D113" s="40"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="D114" s="40"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="D115" s="40"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="D116" s="40"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="D117" s="40"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="D118" s="40"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="D119" s="40"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="D120" s="40"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="D121" s="40"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="D122" s="40"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="D123" s="40"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="D124" s="40"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="D125" s="40"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="D126" s="40"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="D127" s="40"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="D128" s="40"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="D129" s="40"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="D130" s="40"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="D131" s="40"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="D132" s="40"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="D133" s="40"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="D134" s="40"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="D135" s="40"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="D136" s="40"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="D137" s="40"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="D138" s="40"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="D139" s="40"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="D140" s="40"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="D141" s="40"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="D142" s="40"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="D143" s="40"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="D144" s="40"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="D145" s="40"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="D146" s="40"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="D147" s="40"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="D148" s="40"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="D149" s="40"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="D150" s="40"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="D151" s="40"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="D152" s="40"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="D153" s="40"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="D154" s="40"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="D155" s="40"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="D156" s="40"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="D157" s="40"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="D158" s="40"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="D159" s="40"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="D160" s="40"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="D161" s="40"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="D162" s="40"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="D163" s="40"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="D164" s="40"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="D165" s="40"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="D166" s="40"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="D167" s="40"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="D168" s="40"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="D169" s="40"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="D170" s="40"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="D171" s="40"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="D172" s="40"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="D173" s="40"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="D174" s="40"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="D175" s="40"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="D176" s="40"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="D177" s="40"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="D178" s="40"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="D179" s="40"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="D180" s="40"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="D181" s="40"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="D182" s="40"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="D183" s="40"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="D184" s="40"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="D185" s="40"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="D186" s="40"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="D187" s="40"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="D188" s="40"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="D189" s="40"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="D190" s="40"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="D191" s="40"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="D192" s="40"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="D193" s="40"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="D194" s="40"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="D195" s="40"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="D196" s="40"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="D197" s="40"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="D198" s="40"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="D199" s="40"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="31"/>
+      <c r="B200" s="31"/>
+      <c r="D200" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{826D0BB5-094A-476F-A226-BC6A7E2F9136}">
+      <formula1>"Link,Unlink"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>